--- a/resources/codebook.xlsx
+++ b/resources/codebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/350da44f400c7f8f/School/Periode 9/Praktijk/Project-praktijk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfvis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEE675AB-C4B5-4C54-9FF2-9FBA7A633772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14C90DB-4CC3-46D1-9B8B-D1E70012BE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{146A368F-EB96-4306-BA0F-B42F8CC83E3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -51,33 +51,12 @@
     <t>sex</t>
   </si>
   <si>
-    <t>on_thyroxine</t>
-  </si>
-  <si>
-    <t>query_on_thyroxine</t>
-  </si>
-  <si>
-    <t>on_antithyroid_medication</t>
-  </si>
-  <si>
     <t>sick</t>
   </si>
   <si>
     <t>pregnant</t>
   </si>
   <si>
-    <t>thyroid_surgery</t>
-  </si>
-  <si>
-    <t>I131_treatment</t>
-  </si>
-  <si>
-    <t>query_hypothyroid</t>
-  </si>
-  <si>
-    <t>query_hyperthyroid</t>
-  </si>
-  <si>
     <t>lithium</t>
   </si>
   <si>
@@ -132,36 +111,6 @@
     <t>referral source</t>
   </si>
   <si>
-    <t>diagnosis_letter</t>
-  </si>
-  <si>
-    <t>Full_Name</t>
-  </si>
-  <si>
-    <t>Data_Type</t>
-  </si>
-  <si>
-    <t>TSH_measured</t>
-  </si>
-  <si>
-    <t>T3_measured</t>
-  </si>
-  <si>
-    <t>TT4_measured</t>
-  </si>
-  <si>
-    <t>T4U_measured</t>
-  </si>
-  <si>
-    <t>FTI_measured</t>
-  </si>
-  <si>
-    <t>TBG_measured</t>
-  </si>
-  <si>
-    <t>referral_source</t>
-  </si>
-  <si>
     <t>on thyroxine</t>
   </si>
   <si>
@@ -298,6 +247,9 @@
   </si>
   <si>
     <t xml:space="preserve">Additional diagnose with the letter with the patient's condition. </t>
+  </si>
+  <si>
+    <t>Data Type</t>
   </si>
 </sst>
 </file>
@@ -649,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4CF184-E40A-4673-9777-51090B1031DD}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,531 +616,438 @@
     <col min="5" max="5" width="75.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
